--- a/Data_Quality_Framework/DQF/Projects/Azure/config/Config_Rule.xlsx
+++ b/Data_Quality_Framework/DQF/Projects/Azure/config/Config_Rule.xlsx
@@ -393,35 +393,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:N2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:N2"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="config_id" dataDxfId="10">
-      <calculatedColumnFormula>IF(Table2[[#This Row],[rule_name]]="","",MAX(A1:A1)+1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="rule_name" dataDxfId="9"/>
-    <tableColumn id="2" name="rule_id" dataDxfId="8">
-      <calculatedColumnFormula>INDEX(#REF!,MATCH(Table2[[#This Row],[rule_name]],#REF!,0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="rule_action_type" dataDxfId="7"/>
-    <tableColumn id="4" name="ACTIVE_FLAG"/>
-    <tableColumn id="5" name="DQ_CHECK_STAGE" dataDxfId="6"/>
-    <tableColumn id="7" name="validation_table"/>
-    <tableColumn id="8" name="validation_column" dataDxfId="5"/>
-    <tableColumn id="9" name="source_file"/>
-    <tableColumn id="13" name="Exec_Parameter_Template" dataDxfId="4">
-      <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[rule_id]],#REF!,8,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="Exec_Parameter"/>
-    <tableColumn id="6" name="Platform" dataDxfId="3"/>
-    <tableColumn id="16" name="detailed_output" dataDxfId="2"/>
-    <tableColumn id="11" name="Source_file_location" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,33 +692,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet2">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="53.453125" defaultRowHeight="14.5" outlineLevelCol="0"/>
-  <cols>
-    <col width="14.36328125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="21.08984375" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.7265625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="21.08984375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="22.36328125" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="29.26953125" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="47.26953125" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
-    <col width="57.7265625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="29.7265625" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="28.54296875" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="14.1796875" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
-    <col width="20.54296875" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
-    <col width="22.6328125" customWidth="1" style="1" min="14" max="14"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="inlineStr">
@@ -815,98 +770,295 @@
           <t>detailed_output</t>
         </is>
       </c>
-      <c r="N1" s="8" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>Source_file_location</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>char_check</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>R006</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Account_Id</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>sample_data.xlsx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>adls</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>not_null</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>R001</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>warning</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>fca/DQ_input/sample_data.xlsx</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>adls</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>column_length_check</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R0025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Account_Id</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>sample_data.xlsx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>adls</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>date_format_check</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R007</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sales Date</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>fca/DQ_input/sample_data.xlsx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DD/MM/YY</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>adls</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>varchar_check</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>R009</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>fca/DQ_input/sample_data.xlsx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>adls</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="notContainsBlanks" priority="4" dxfId="0">
-      <formula>LEN(TRIM(J1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation sqref="M2 E1:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D1:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"table,file"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F1:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"warning,error"</formula1>
-    </dataValidation>
-    <dataValidation sqref="L1:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"snowflake,synapse"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>